--- a/RelatorioConversoesPorAnoMesSemana.xlsx
+++ b/RelatorioConversoesPorAnoMesSemana.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Conversões por Ano, Mês e Seman" r:id="rId3" sheetId="1"/>
+    <sheet name="Relatório" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
   <si>
     <t>Ano</t>
   </si>
@@ -26,9 +26,6 @@
     <t>Total de Conversões</t>
   </si>
   <si>
-    <t>07</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -41,19 +38,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>08</t>
-  </si>
-  <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
   </si>
 </sst>
 </file>
@@ -208,11 +193,11 @@
       <c r="A2" t="n" s="2">
         <v>2023.0</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" t="n" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>4</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>5</v>
       </c>
       <c r="D2" t="n" s="2">
         <v>1.0</v>
@@ -222,11 +207,11 @@
       <c r="A3" t="n" s="3">
         <v>2023.0</v>
       </c>
-      <c r="B3" t="s" s="3">
-        <v>4</v>
+      <c r="B3" t="n" s="3">
+        <v>7.0</v>
       </c>
       <c r="C3" t="s" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n" s="3">
         <v>6.0</v>
@@ -236,11 +221,11 @@
       <c r="A4" t="n" s="4">
         <v>2023.0</v>
       </c>
-      <c r="B4" t="s" s="4">
-        <v>4</v>
+      <c r="B4" t="n" s="4">
+        <v>7.0</v>
       </c>
       <c r="C4" t="s" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n" s="4">
         <v>8.0</v>
@@ -250,11 +235,11 @@
       <c r="A5" t="n" s="5">
         <v>2023.0</v>
       </c>
-      <c r="B5" t="s" s="5">
-        <v>4</v>
+      <c r="B5" t="n" s="5">
+        <v>7.0</v>
       </c>
       <c r="C5" t="s" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n" s="5">
         <v>7.0</v>
@@ -264,11 +249,11 @@
       <c r="A6" t="n" s="6">
         <v>2023.0</v>
       </c>
-      <c r="B6" t="s" s="6">
-        <v>9</v>
+      <c r="B6" t="n" s="6">
+        <v>8.0</v>
       </c>
       <c r="C6" t="s" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n" s="6">
         <v>10.0</v>
@@ -278,11 +263,11 @@
       <c r="A7" t="n" s="7">
         <v>2023.0</v>
       </c>
-      <c r="B7" t="s" s="7">
-        <v>9</v>
+      <c r="B7" t="n" s="7">
+        <v>8.0</v>
       </c>
       <c r="C7" t="s" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n" s="7">
         <v>9.0</v>
@@ -292,11 +277,11 @@
       <c r="A8" t="n" s="8">
         <v>2023.0</v>
       </c>
-      <c r="B8" t="s" s="8">
-        <v>9</v>
+      <c r="B8" t="n" s="8">
+        <v>8.0</v>
       </c>
       <c r="C8" t="s" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n" s="8">
         <v>14.0</v>
@@ -306,11 +291,11 @@
       <c r="A9" t="n" s="9">
         <v>2023.0</v>
       </c>
-      <c r="B9" t="s" s="9">
-        <v>9</v>
+      <c r="B9" t="n" s="9">
+        <v>8.0</v>
       </c>
       <c r="C9" t="s" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n" s="9">
         <v>16.0</v>
@@ -320,11 +305,11 @@
       <c r="A10" t="n" s="10">
         <v>2023.0</v>
       </c>
-      <c r="B10" t="s" s="10">
-        <v>9</v>
+      <c r="B10" t="n" s="10">
+        <v>8.0</v>
       </c>
       <c r="C10" t="s" s="10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n" s="10">
         <v>5.0</v>
@@ -334,11 +319,11 @@
       <c r="A11" t="n" s="11">
         <v>2023.0</v>
       </c>
-      <c r="B11" t="s" s="11">
-        <v>11</v>
+      <c r="B11" t="n" s="11">
+        <v>9.0</v>
       </c>
       <c r="C11" t="s" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n" s="11">
         <v>8.0</v>
@@ -348,11 +333,11 @@
       <c r="A12" t="n" s="12">
         <v>2023.0</v>
       </c>
-      <c r="B12" t="s" s="12">
-        <v>11</v>
+      <c r="B12" t="n" s="12">
+        <v>9.0</v>
       </c>
       <c r="C12" t="s" s="12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n" s="12">
         <v>15.0</v>
@@ -362,11 +347,11 @@
       <c r="A13" t="n" s="13">
         <v>2023.0</v>
       </c>
-      <c r="B13" t="s" s="13">
-        <v>11</v>
+      <c r="B13" t="n" s="13">
+        <v>9.0</v>
       </c>
       <c r="C13" t="s" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n" s="13">
         <v>10.0</v>
@@ -376,11 +361,11 @@
       <c r="A14" t="n" s="14">
         <v>2023.0</v>
       </c>
-      <c r="B14" t="s" s="14">
-        <v>11</v>
+      <c r="B14" t="n" s="14">
+        <v>9.0</v>
       </c>
       <c r="C14" t="s" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n" s="14">
         <v>25.0</v>
@@ -390,11 +375,11 @@
       <c r="A15" t="n" s="15">
         <v>2023.0</v>
       </c>
-      <c r="B15" t="s" s="15">
-        <v>11</v>
+      <c r="B15" t="n" s="15">
+        <v>9.0</v>
       </c>
       <c r="C15" t="s" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n" s="15">
         <v>3.0</v>
@@ -404,11 +389,11 @@
       <c r="A16" t="n" s="16">
         <v>2023.0</v>
       </c>
-      <c r="B16" t="s" s="16">
-        <v>12</v>
+      <c r="B16" t="n" s="16">
+        <v>10.0</v>
       </c>
       <c r="C16" t="s" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n" s="16">
         <v>11.0</v>
@@ -418,11 +403,11 @@
       <c r="A17" t="n" s="17">
         <v>2023.0</v>
       </c>
-      <c r="B17" t="s" s="17">
-        <v>12</v>
+      <c r="B17" t="n" s="17">
+        <v>10.0</v>
       </c>
       <c r="C17" t="s" s="17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n" s="17">
         <v>12.0</v>
@@ -432,11 +417,11 @@
       <c r="A18" t="n" s="18">
         <v>2023.0</v>
       </c>
-      <c r="B18" t="s" s="18">
-        <v>12</v>
+      <c r="B18" t="n" s="18">
+        <v>10.0</v>
       </c>
       <c r="C18" t="s" s="18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n" s="18">
         <v>5.0</v>
@@ -446,11 +431,11 @@
       <c r="A19" t="n" s="19">
         <v>2023.0</v>
       </c>
-      <c r="B19" t="s" s="19">
-        <v>12</v>
+      <c r="B19" t="n" s="19">
+        <v>10.0</v>
       </c>
       <c r="C19" t="s" s="19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n" s="19">
         <v>14.0</v>
@@ -460,11 +445,11 @@
       <c r="A20" t="n" s="20">
         <v>2023.0</v>
       </c>
-      <c r="B20" t="s" s="20">
-        <v>12</v>
+      <c r="B20" t="n" s="20">
+        <v>10.0</v>
       </c>
       <c r="C20" t="s" s="20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n" s="20">
         <v>7.0</v>
@@ -474,11 +459,11 @@
       <c r="A21" t="n" s="21">
         <v>2023.0</v>
       </c>
-      <c r="B21" t="s" s="21">
-        <v>13</v>
+      <c r="B21" t="n" s="21">
+        <v>11.0</v>
       </c>
       <c r="C21" t="s" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n" s="21">
         <v>23.0</v>
@@ -488,11 +473,11 @@
       <c r="A22" t="n" s="22">
         <v>2023.0</v>
       </c>
-      <c r="B22" t="s" s="22">
-        <v>13</v>
+      <c r="B22" t="n" s="22">
+        <v>11.0</v>
       </c>
       <c r="C22" t="s" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n" s="22">
         <v>24.0</v>
